--- a/models_summary.xlsx
+++ b/models_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorb\PycharmProjects\semantic_segmentation_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28E4DA9-E1C8-461C-95C2-19DADE8F1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CBF02-FD32-4F64-9D0E-D8170C6B5836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network tests" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="114">
   <si>
     <t>U-net</t>
   </si>
@@ -252,9 +252,6 @@
     <t>1,5,27,7</t>
   </si>
   <si>
-    <t>1,3,4,5,7,9,11,12,13,20,22,25,27,30,31,32,33,34,37,38</t>
-  </si>
-  <si>
     <t>8,35,36</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>3,9,31,38</t>
   </si>
   <si>
-    <t>1,3,4,5,11,12,13,20,21,22,24,29,30,31,32,33</t>
-  </si>
-  <si>
     <t>1,3,8,13,29,30,31,32,33</t>
   </si>
   <si>
@@ -367,6 +361,24 @@
   </si>
   <si>
     <t>2,1</t>
+  </si>
+  <si>
+    <t>1,3,4,5,7,8,9,11,12,13,20,22,23,24,25,27,30,31,32,33,34,36,37,38</t>
+  </si>
+  <si>
+    <t>1,3,4,5,8,11,12,13,20,21,22,24,29,30,31,32,33,23,25</t>
+  </si>
+  <si>
+    <t>Weights for default</t>
+  </si>
+  <si>
+    <t>Weights for equal</t>
+  </si>
+  <si>
+    <t>[0.3525,0.4794,0.2733]</t>
+  </si>
+  <si>
+    <t>[0.8267,0.8426,0.8767]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -445,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -457,6 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2559,7 +2578,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="H61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C2BE5A-838B-4610-85FA-B08F92252D8A}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2717,53 +2736,53 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
       <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0.24010000000000001</v>
@@ -2781,7 +2800,7 @@
         <v>0.23519999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>0.2424</v>
@@ -2801,7 +2820,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>0.25290000000000001</v>
@@ -2819,7 +2838,7 @@
         <v>0.25109999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12">
         <v>0.22140000000000001</v>
@@ -2839,7 +2858,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>0.22309999999999999</v>
@@ -2857,7 +2876,7 @@
         <v>0.21529999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <v>0.36809999999999998</v>
@@ -2877,7 +2896,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>0.28389999999999999</v>
@@ -2895,7 +2914,7 @@
         <v>0.2772</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>0.30990000000000001</v>
@@ -2915,7 +2934,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>0.19450000000000001</v>
@@ -2933,7 +2952,7 @@
         <v>0.1888</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15">
         <v>0.1394</v>
@@ -2959,53 +2978,53 @@
     </row>
     <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
         <v>89</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="6">
         <v>0.25169999999999998</v>
@@ -3023,7 +3042,7 @@
         <v>0.31140000000000001</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I20">
         <v>0.46910000000000002</v>
@@ -3043,7 +3062,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>0.27710000000000001</v>
@@ -3061,7 +3080,7 @@
         <v>0.30669999999999997</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I21">
         <v>0.5101</v>
@@ -3081,7 +3100,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>0.2409</v>
@@ -3099,7 +3118,7 @@
         <v>0.32369999999999999</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <v>0.52559999999999996</v>
@@ -3119,7 +3138,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>0.29670000000000002</v>
@@ -3137,7 +3156,7 @@
         <v>0.2944</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I23">
         <v>0.59289999999999998</v>
@@ -3157,7 +3176,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>0.2024</v>
@@ -3175,7 +3194,7 @@
         <v>0.26679999999999998</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24">
         <v>0.45240000000000002</v>
@@ -3195,53 +3214,53 @@
     </row>
     <row r="26" spans="1:13">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" t="s">
         <v>89</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>90</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>91</v>
-      </c>
-      <c r="L27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>0.2616</v>
@@ -3259,7 +3278,7 @@
         <v>0.4279</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28">
         <v>0.47489999999999999</v>
@@ -3279,7 +3298,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>0.2203</v>
@@ -3297,7 +3316,7 @@
         <v>0.37480000000000002</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <v>0.49609999999999999</v>
@@ -3317,7 +3336,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>0.24299999999999999</v>
@@ -3335,7 +3354,7 @@
         <v>0.40210000000000001</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I30">
         <v>0.50739999999999996</v>
@@ -3355,7 +3374,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>0.25669999999999998</v>
@@ -3373,7 +3392,7 @@
         <v>0.36840000000000001</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I31">
         <v>0.51519999999999999</v>
@@ -3393,7 +3412,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>0.23250000000000001</v>
@@ -3411,7 +3430,7 @@
         <v>0.39750000000000002</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32">
         <v>0.53979999999999995</v>
@@ -3431,53 +3450,53 @@
     </row>
     <row r="35" spans="1:13">
       <c r="B35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>91</v>
       </c>
-      <c r="E36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" t="s">
         <v>89</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>90</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>91</v>
-      </c>
-      <c r="L36" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>0.31130000000000002</v>
@@ -3495,7 +3514,7 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I37">
         <v>0.57750000000000001</v>
@@ -3515,7 +3534,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>0.29820000000000002</v>
@@ -3533,7 +3552,7 @@
         <v>0.4148</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I38">
         <v>0.60740000000000005</v>
@@ -3553,7 +3572,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>0.30220000000000002</v>
@@ -3571,7 +3590,7 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I39">
         <v>0.56640000000000001</v>
@@ -3591,7 +3610,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>0.33529999999999999</v>
@@ -3609,7 +3628,7 @@
         <v>0.37630000000000002</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I40">
         <v>0.59360000000000002</v>
@@ -3629,7 +3648,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.30230000000000001</v>
@@ -3647,7 +3666,7 @@
         <v>0.44390000000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I41">
         <v>0.55989999999999995</v>
@@ -3667,53 +3686,53 @@
     </row>
     <row r="43" spans="1:13">
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>91</v>
       </c>
-      <c r="E44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
-      </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s">
         <v>89</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>90</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>91</v>
-      </c>
-      <c r="L44" t="s">
-        <v>92</v>
-      </c>
-      <c r="M44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>0.7359</v>
@@ -3731,7 +3750,7 @@
         <v>0.79290000000000005</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I45">
         <v>0.77039999999999997</v>
@@ -3751,7 +3770,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>0.72160000000000002</v>
@@ -3769,7 +3788,7 @@
         <v>0.77510000000000001</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I46">
         <v>0.78269999999999995</v>
@@ -3789,7 +3808,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>0.7349</v>
@@ -3807,7 +3826,7 @@
         <v>0.79059999999999997</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I47">
         <v>0.78600000000000003</v>
@@ -3827,7 +3846,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>0.74170000000000003</v>
@@ -3845,7 +3864,7 @@
         <v>0.78569999999999995</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I48">
         <v>0.80230000000000001</v>
@@ -3865,7 +3884,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>0.72119999999999995</v>
@@ -3883,7 +3902,7 @@
         <v>0.77529999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I49">
         <v>0.78280000000000005</v>
@@ -3909,53 +3928,53 @@
     </row>
     <row r="52" spans="1:13">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
         <v>89</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>90</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>91</v>
       </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" t="s">
-        <v>93</v>
-      </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s">
         <v>89</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>90</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
         <v>91</v>
-      </c>
-      <c r="L53" t="s">
-        <v>92</v>
-      </c>
-      <c r="M53" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54">
         <v>0.73360000000000003</v>
@@ -3973,7 +3992,7 @@
         <v>0.79069999999999996</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I54">
         <v>0.79169999999999996</v>
@@ -3993,7 +4012,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>0.72909999999999997</v>
@@ -4011,7 +4030,7 @@
         <v>0.77359999999999995</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I55">
         <v>0.80159999999999998</v>
@@ -4031,7 +4050,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>0.73640000000000005</v>
@@ -4049,7 +4068,7 @@
         <v>0.79369999999999996</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I56">
         <v>0.7944</v>
@@ -4069,7 +4088,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>0.74660000000000004</v>
@@ -4087,7 +4106,7 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I57">
         <v>0.81169999999999998</v>
@@ -4107,7 +4126,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>0.72299999999999998</v>
@@ -4125,7 +4144,7 @@
         <v>0.77439999999999998</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I58">
         <v>0.78269999999999995</v>
@@ -4151,53 +4170,53 @@
     </row>
     <row r="61" spans="1:13">
       <c r="B61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" t="s">
         <v>89</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>90</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>91</v>
       </c>
-      <c r="E62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" t="s">
-        <v>93</v>
-      </c>
       <c r="H62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I62" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s">
         <v>89</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>90</v>
       </c>
-      <c r="K62" t="s">
+      <c r="M62" t="s">
         <v>91</v>
-      </c>
-      <c r="L62" t="s">
-        <v>92</v>
-      </c>
-      <c r="M62" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>0.84370000000000001</v>
@@ -4215,7 +4234,7 @@
         <v>0.88029999999999997</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I63">
         <v>0.86329999999999996</v>
@@ -4235,7 +4254,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>0.83440000000000003</v>
@@ -4253,7 +4272,7 @@
         <v>0.86980000000000002</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I64">
         <v>0.87150000000000005</v>
@@ -4273,7 +4292,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>0.84279999999999999</v>
@@ -4291,7 +4310,7 @@
         <v>0.879</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I65">
         <v>0.87380000000000002</v>
@@ -4311,7 +4330,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>0.8478</v>
@@ -4329,7 +4348,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I66">
         <v>0.88429999999999997</v>
@@ -4349,7 +4368,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>0.8347</v>
@@ -4367,7 +4386,7 @@
         <v>0.86980000000000002</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I67">
         <v>0.86990000000000001</v>
@@ -4387,53 +4406,53 @@
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
         <v>89</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>90</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>91</v>
       </c>
-      <c r="E71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" t="s">
-        <v>93</v>
-      </c>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s">
         <v>89</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>90</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>91</v>
-      </c>
-      <c r="L71" t="s">
-        <v>92</v>
-      </c>
-      <c r="M71" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B72">
         <v>0.84079999999999999</v>
@@ -4451,7 +4470,7 @@
         <v>0.87770000000000004</v>
       </c>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I72">
         <v>0.87529999999999997</v>
@@ -4471,7 +4490,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>0.83879999999999999</v>
@@ -4489,7 +4508,7 @@
         <v>0.86780000000000002</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I73">
         <v>0.88219999999999998</v>
@@ -4509,7 +4528,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>0.84299999999999997</v>
@@ -4527,7 +4546,7 @@
         <v>0.87980000000000003</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I74">
         <v>0.878</v>
@@ -4547,7 +4566,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75">
         <v>0.85089999999999999</v>
@@ -4565,7 +4584,7 @@
         <v>0.87090000000000001</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I75">
         <v>0.8891</v>
@@ -4585,7 +4604,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>0.83450000000000002</v>
@@ -4603,7 +4622,7 @@
         <v>0.86770000000000003</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I76">
         <v>0.86960000000000004</v>
@@ -4623,23 +4642,23 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4649,21 +4668,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA79849-39FF-4485-A9C7-47C3A2C01EC6}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4694,28 +4713,37 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="L2" t="s">
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4744,22 +4772,40 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="M3">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="P3">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="S3">
         <v>0.69399999999999995</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>0.78269999999999995</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q3">
-        <v>0.2198</v>
-      </c>
-      <c r="R3">
-        <v>0.1762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="W3">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="X3">
+        <v>0.3145</v>
+      </c>
+      <c r="Y3">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>0.87539999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="E4" t="s">
@@ -4778,22 +4824,40 @@
         <v>0.93079999999999996</v>
       </c>
       <c r="M4">
+        <v>3.61E-2</v>
+      </c>
+      <c r="N4">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="S4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>0.87019999999999997</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>0.93</v>
       </c>
-      <c r="Q4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R4">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="W4">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="X4">
+        <v>0.1056</v>
+      </c>
+      <c r="Y4">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="Z4">
+        <v>0.88460000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" t="s">
@@ -4812,22 +4876,40 @@
         <v>0.87780000000000002</v>
       </c>
       <c r="M5">
+        <v>3.15E-2</v>
+      </c>
+      <c r="N5">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="P5">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="S5">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="T5">
         <v>0.61880000000000002</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>0.76400000000000001</v>
       </c>
-      <c r="Q5">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="R5">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="W5">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="X5">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="Y5">
+        <v>0.7833</v>
+      </c>
+      <c r="Z5">
+        <v>0.87439999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="8" t="s">
@@ -4845,23 +4927,42 @@
       <c r="K6" s="8">
         <v>0.99</v>
       </c>
-      <c r="M6" s="8">
+      <c r="L6" s="8"/>
+      <c r="M6">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.312</v>
+      </c>
+      <c r="O6">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="S6" s="8">
         <v>0.73619999999999997</v>
       </c>
-      <c r="N6" s="8">
+      <c r="T6" s="8">
         <v>0.98560000000000003</v>
       </c>
-      <c r="O6" s="8">
+      <c r="U6" s="8">
         <v>0.99270000000000003</v>
       </c>
-      <c r="Q6" s="8">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="W6" s="8">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.38469999999999999</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="E7" t="s">
@@ -4880,345 +4981,837 @@
         <v>0.8679</v>
       </c>
       <c r="M7">
+        <v>0.1028</v>
+      </c>
+      <c r="N7">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="S7">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>0.84760000000000002</v>
       </c>
-      <c r="Q7">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="R7">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="W7">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.83650000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
+      <c r="M8" s="9">
+        <f>AVERAGE(M3:M7)</f>
+        <v>0.12624000000000002</v>
+      </c>
+      <c r="N8" s="9">
+        <f>AVERAGE(N3:N7)</f>
+        <v>0.17203999999999997</v>
+      </c>
+      <c r="O8" s="9">
+        <f>AVERAGE(O3:O7)</f>
+        <v>0.81734000000000007</v>
+      </c>
+      <c r="P8" s="9">
+        <f>AVERAGE(P3:P7)</f>
+        <v>0.8972</v>
+      </c>
+      <c r="W8" s="9">
+        <f>AVERAGE(W3:W7)</f>
+        <v>0.16714000000000001</v>
+      </c>
+      <c r="X8" s="9">
+        <f>AVERAGE(X3:X7)</f>
+        <v>0.21817999999999999</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" ref="Y8:Z8" si="0">AVERAGE(Y3:Y7)</f>
+        <v>0.80247999999999986</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87995999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="M9" s="9">
+        <f>STDEV(M3:M7)</f>
+        <v>9.9557285017220068E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <f>STDEV(N3:N7)</f>
+        <v>0.1123841091969857</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" ref="O9:P9" si="1">STDEV(O3:O7)</f>
+        <v>6.9011651190215711E-2</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3892083568680122E-2</v>
+      </c>
+      <c r="W9" s="9">
+        <f>STDEV(W3:W7)</f>
+        <v>0.12515629428838165</v>
+      </c>
+      <c r="X9" s="9">
+        <f>STDEV(X3:X7)</f>
+        <v>0.12738091301290008</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" ref="Y9:Z9" si="2">STDEV(Y3:Y7)</f>
+        <v>4.0212522925078958E-2</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3004287600249739E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>0.45</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9">
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11">
         <v>0.59540000000000004</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>0.88380000000000003</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>0.93669999999999998</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M11">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.3987</v>
+      </c>
+      <c r="O11">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="S11" s="6">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N9" s="6">
+      <c r="T11" s="6">
         <v>0.85419999999999996</v>
       </c>
-      <c r="O9" s="6">
+      <c r="U11" s="6">
         <v>0.91969999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="E10" s="8" t="s">
+      <c r="W11">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.93589999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="E12" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.749</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.89239999999999997</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.75249999999999995</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.79279999999999995</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0.87839999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11">
-        <v>0.48720000000000002</v>
-      </c>
-      <c r="J11">
-        <v>0.8992</v>
-      </c>
-      <c r="K11">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.89749999999999996</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0.94420000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="E12" t="s">
-        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12">
+        <v>82</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.749</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
+        <v>0.2429</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.3145</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="W12">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="X12">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="Y12">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="Z12">
+        <v>0.94330000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.8992</v>
+      </c>
+      <c r="K13">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="W13">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="X13">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>0.94540000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
         <v>0.44990000000000002</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>0.84650000000000003</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>0.91269999999999996</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M14">
+        <v>0.4123</v>
+      </c>
+      <c r="N14">
+        <v>0.4879</v>
+      </c>
+      <c r="O14">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="S14" s="6">
         <v>0.62680000000000002</v>
       </c>
-      <c r="N12" s="6">
+      <c r="T14" s="6">
         <v>0.83130000000000004</v>
       </c>
-      <c r="O12" s="6">
+      <c r="U14" s="6">
         <v>0.90429999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="E13" t="s">
+      <c r="W14">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="X14">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Z14">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13">
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
         <v>0.38390000000000002</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>0.87280000000000002</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0.93059999999999998</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M15">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="N15">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="S15" s="6">
         <v>0.32419999999999999</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T15" s="6">
         <v>0.86050000000000004</v>
       </c>
-      <c r="O13" s="6">
+      <c r="U15" s="6">
         <v>0.92330000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="H14" t="s">
+      <c r="W15">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="X15">
+        <v>0.4723</v>
+      </c>
+      <c r="Y15">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.94089999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="M16" s="9">
+        <f>AVERAGE(M11:M15)</f>
+        <v>0.31901999999999997</v>
+      </c>
+      <c r="N16" s="9">
+        <f>AVERAGE(N11:N15)</f>
+        <v>0.38802000000000003</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" ref="O16:P16" si="3">AVERAGE(O11:O15)</f>
+        <v>0.85649999999999993</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.91898000000000002</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="W16" s="9">
+        <f>AVERAGE(W11:W15)</f>
+        <v>0.42637999999999998</v>
+      </c>
+      <c r="X16" s="9">
+        <f>AVERAGE(X11:X15)</f>
+        <v>0.50497999999999998</v>
+      </c>
+      <c r="Y16" s="9">
+        <f t="shared" ref="Y16:Z16" si="4">AVERAGE(Y11:Y15)</f>
+        <v>0.88876000000000011</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="4"/>
+        <v>0.93887999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="M17" s="9">
+        <f>STDEV(M11:M15)</f>
+        <v>8.4930836567173748E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <f>STDEV(N11:N15)</f>
+        <v>8.2226254931134751E-2</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" ref="O17:P17" si="5">STDEV(O11:O15)</f>
+        <v>2.6158459434760303E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="5"/>
+        <v>1.5837518745055977E-2</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="W17" s="9">
+        <f>STDEV(W11:W15)</f>
+        <v>4.57207502125676E-2</v>
+      </c>
+      <c r="X17" s="9">
+        <f>STDEV(X11:X15)</f>
+        <v>3.826835507308881E-2</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" ref="Y17:Z17" si="6">STDEV(Y11:Y15)</f>
+        <v>1.2028840343108742E-2</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="6"/>
+        <v>6.6069660207995927E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="H18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>0.4</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>0.6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I19" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
+        <v>0.2321</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.9254</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.3014</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0.87270000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="8">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.86450000000000005</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.92520000000000002</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0.76129999999999998</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0.9254</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0.96040000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I20" s="6">
+        <v>0.3261</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
+        <v>0.2321</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="W20">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="X20">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="Y20">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="Z20">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="6">
-        <v>0.3261</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0.96419999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="I21" s="6">
         <v>0.5383</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J21" s="6">
         <v>0.80220000000000002</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K21" s="6">
         <v>0.88229999999999997</v>
       </c>
-      <c r="M17" s="6">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="S21" s="6">
         <v>0.56610000000000005</v>
       </c>
-      <c r="N17" s="6">
+      <c r="T21" s="6">
         <v>0.84650000000000003</v>
       </c>
-      <c r="O17" s="6">
+      <c r="U21" s="6">
         <v>0.90810000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" s="8" t="s">
+      <c r="W21">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="X21">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="Z21">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="E22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>68</v>
       </c>
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="6">
         <v>0.41039999999999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J22" s="6">
         <v>0.84089999999999998</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K22" s="6">
         <v>0.91</v>
       </c>
-      <c r="M18" s="6">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
+        <v>0.2487</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="S22" s="6">
         <v>0.54700000000000004</v>
       </c>
-      <c r="N18" s="6">
+      <c r="T22" s="6">
         <v>0.88329999999999997</v>
       </c>
-      <c r="O18" s="6">
+      <c r="U22" s="6">
         <v>0.93530000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
+      <c r="W22">
+        <v>0.29339999999999999</v>
+      </c>
+      <c r="X22">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="Z22">
+        <v>0.89910000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="6">
         <v>0.52270000000000005</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J23" s="6">
         <v>0.90210000000000001</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K23" s="6">
         <v>0.94740000000000002</v>
       </c>
-      <c r="M19" s="6">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6">
+        <v>0.2016</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="S23" s="6">
         <v>0.6129</v>
       </c>
-      <c r="N19" s="6">
+      <c r="T23" s="6">
         <v>0.9002</v>
       </c>
-      <c r="O19" s="6">
+      <c r="U23" s="6">
         <v>0.94679999999999997</v>
+      </c>
+      <c r="W23">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="X23">
+        <v>0.3105</v>
+      </c>
+      <c r="Y23">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Z23">
+        <v>0.88229999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="M24" s="9">
+        <f>AVERAGE(M19:M23)</f>
+        <v>0.22712000000000004</v>
+      </c>
+      <c r="N24" s="9">
+        <f>AVERAGE(N19:N23)</f>
+        <v>0.30286000000000002</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ref="O24:P24" si="7">AVERAGE(O19:O23)</f>
+        <v>0.81922000000000017</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="7"/>
+        <v>0.89835999999999994</v>
+      </c>
+      <c r="W24" s="9">
+        <f>AVERAGE(W19:W23)</f>
+        <v>0.29193999999999998</v>
+      </c>
+      <c r="X24" s="9">
+        <f>AVERAGE(X19:X23)</f>
+        <v>0.36397999999999997</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" ref="Y24:Z24" si="8">AVERAGE(Y19:Y23)</f>
+        <v>0.80514000000000008</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="8"/>
+        <v>0.88832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="9">
+        <f>STDEV(M19:M23)</f>
+        <v>1.73407612289657E-2</v>
+      </c>
+      <c r="N25" s="9">
+        <f>STDEV(N19:N23)</f>
+        <v>1.0800370364019946E-2</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25:P25" si="9">STDEV(O19:O23)</f>
+        <v>7.1363155759817803E-3</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="9"/>
+        <v>4.1752844214496656E-3</v>
+      </c>
+      <c r="W25" s="9">
+        <f>STDEV(W19:W23)</f>
+        <v>6.4740814020214255E-2</v>
+      </c>
+      <c r="X25" s="9">
+        <f>STDEV(X19:X23)</f>
+        <v>5.6904455010131152E-2</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" ref="Y25:Z25" si="10">STDEV(Y19:Y23)</f>
+        <v>1.8260284773244907E-2</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="10"/>
+        <v>1.1186241549331916E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
